--- a/data/capcollection.xlsx
+++ b/data/capcollection.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Desktop\PROGRAMES\CapCollection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Desktop\PROGRAMES\CapCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBAB8F9-9172-4921-8B28-E8D2F101726B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F380443-F71E-4FCF-BA57-BCF2D69FE159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="305">
   <si>
     <t>FONT D'OR</t>
   </si>
@@ -944,6 +944,24 @@
   <si>
     <t>image145.png</t>
   </si>
+  <si>
+    <t>BERLINER KINDL (jubiläums pilsener)</t>
+  </si>
+  <si>
+    <t>image146.png</t>
+  </si>
+  <si>
+    <t>image147.png</t>
+  </si>
+  <si>
+    <t>image148.png</t>
+  </si>
+  <si>
+    <t>FRITZ-LIMO (orange)</t>
+  </si>
+  <si>
+    <t>BITTER KAS</t>
+  </si>
 </sst>
 </file>
 
@@ -1366,14 +1384,14 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G143" sqref="G143"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.765625" customWidth="1"/>
-    <col min="2" max="2" width="32.61328125" customWidth="1"/>
+    <col min="2" max="2" width="37.3828125" customWidth="1"/>
     <col min="3" max="3" width="12.23046875" customWidth="1"/>
     <col min="4" max="4" width="13.4609375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
@@ -6624,13 +6642,19 @@
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
     </row>
-    <row r="147" spans="1:26" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:26" ht="48.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="5"/>
+      <c r="B147" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>300</v>
+      </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
@@ -6654,13 +6678,19 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148" spans="1:26" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:26" ht="49.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="5"/>
+      <c r="B148" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
@@ -6684,13 +6714,19 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149" spans="1:26" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:26" ht="46.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="5"/>
+      <c r="B149" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
@@ -6714,7 +6750,7 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150" spans="1:26" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26" ht="48.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -6744,7 +6780,7 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" spans="1:26" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:26" ht="47.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
